--- a/No_Days_Outages.xlsx
+++ b/No_Days_Outages.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Number of Days of Outages throughout 2022</t>
+    <t>Number of Days of Outages throughout 2023</t>
   </si>
   <si>
     <t>Month</t>
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/No_Days_Outages.xlsx
+++ b/No_Days_Outages.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Number of Days of Outages throughout 2023</t>
+    <t>Number of Days of Outages throughout 2022</t>
   </si>
   <si>
     <t>Month</t>
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
